--- a/data/league_data/spain/19/spain_misc.xlsx
+++ b/data/league_data/spain/19/spain_misc.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26CF08EA-0AE1-B147-AC40-F891F48083A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756FF9F5-15DF-9442-922F-3C94CAB63567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="589">
   <si>
     <t>Rk</t>
   </si>
@@ -1781,12 +1781,18 @@
   </si>
   <si>
     <t>Toni Moya</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2644,14 +2650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -2679,7 +2685,7 @@
     <col min="24" max="24" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2753,7 +2759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2825,7 +2831,7 @@
       </c>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2897,7 +2903,7 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2969,7 +2975,7 @@
       </c>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3117,7 +3123,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3265,7 +3271,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3339,7 +3345,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3413,7 +3419,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3485,7 +3491,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3559,7 +3565,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3633,7 +3639,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3705,7 +3711,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3779,7 +3785,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3851,7 +3857,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3925,7 +3931,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3999,7 +4005,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4073,7 +4079,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4147,7 +4153,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4221,7 +4227,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4295,7 +4301,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4369,7 +4375,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4443,7 +4449,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4517,7 +4523,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4589,7 +4595,7 @@
       </c>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4663,7 +4669,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4735,7 +4741,7 @@
       </c>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4809,7 +4815,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4883,7 +4889,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4957,7 +4963,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5031,7 +5037,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5105,7 +5111,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5179,7 +5185,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5253,7 +5259,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5325,7 +5331,7 @@
       </c>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5397,7 +5403,7 @@
       </c>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5471,7 +5477,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5545,7 +5551,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5619,7 +5625,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5693,7 +5699,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5767,7 +5773,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5841,7 +5847,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5915,7 +5921,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5987,7 +5993,7 @@
       </c>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6061,7 +6067,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6135,7 +6141,7 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6209,7 +6215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6283,7 +6289,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6357,7 +6363,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6431,7 +6437,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6505,7 +6511,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6579,7 +6585,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6653,7 +6659,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6727,7 +6733,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6801,7 +6807,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6873,7 +6879,7 @@
       </c>
       <c r="X57" s="2"/>
     </row>
-    <row r="58" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6947,7 +6953,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7021,7 +7027,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7095,7 +7101,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7169,7 +7175,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7243,7 +7249,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7317,7 +7323,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7391,7 +7397,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7465,7 +7471,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7539,7 +7545,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7613,7 +7619,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7687,7 +7693,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7761,7 +7767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7835,7 +7841,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -7909,7 +7915,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -7983,7 +7989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8057,7 +8063,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8131,7 +8137,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8205,7 +8211,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8279,7 +8285,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8353,7 +8359,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8427,7 +8433,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8501,7 +8507,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8575,7 +8581,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8649,7 +8655,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8723,7 +8729,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8797,7 +8803,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8871,7 +8877,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -8945,7 +8951,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9019,7 +9025,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9093,7 +9099,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9167,7 +9173,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9241,7 +9247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9315,7 +9321,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9389,7 +9395,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9463,7 +9469,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9537,7 +9543,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9611,7 +9617,7 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9685,7 +9691,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9759,7 +9765,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -9833,7 +9839,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -9907,7 +9913,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -9981,7 +9987,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10055,7 +10061,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10129,7 +10135,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10203,7 +10209,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10277,7 +10283,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10351,7 +10357,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10425,7 +10431,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10497,7 +10503,7 @@
       </c>
       <c r="X106" s="2"/>
     </row>
-    <row r="107" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10571,7 +10577,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10645,7 +10651,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10717,7 +10723,7 @@
       </c>
       <c r="X109" s="2"/>
     </row>
-    <row r="110" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -10791,7 +10797,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -10865,7 +10871,7 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -10939,7 +10945,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11013,7 +11019,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11087,7 +11093,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11161,12 +11167,12 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>190</v>
+        <v>588</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>25</v>
@@ -11235,7 +11241,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11309,7 +11315,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11383,7 +11389,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11457,7 +11463,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11531,7 +11537,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11605,7 +11611,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11679,7 +11685,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11753,7 +11759,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11827,7 +11833,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11901,7 +11907,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -11975,7 +11981,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12049,7 +12055,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12123,7 +12129,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12197,7 +12203,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12271,7 +12277,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12345,7 +12351,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12419,7 +12425,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12491,7 +12497,7 @@
       </c>
       <c r="X133" s="2"/>
     </row>
-    <row r="134" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12565,7 +12571,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12639,7 +12645,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12713,7 +12719,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12787,7 +12793,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12861,7 +12867,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -12935,7 +12941,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -13007,7 +13013,7 @@
       </c>
       <c r="X140" s="2"/>
     </row>
-    <row r="141" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13081,7 +13087,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13155,7 +13161,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13229,7 +13235,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13303,7 +13309,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13377,7 +13383,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13451,7 +13457,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13525,7 +13531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -13599,7 +13605,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -13673,7 +13679,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -13747,7 +13753,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -13821,7 +13827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -13895,7 +13901,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -13969,7 +13975,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -14043,7 +14049,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -14117,7 +14123,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14191,7 +14197,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14265,7 +14271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -14339,7 +14345,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -14413,7 +14419,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -14487,7 +14493,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -14561,7 +14567,7 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -14635,7 +14641,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -14709,7 +14715,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -14783,7 +14789,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -14857,7 +14863,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -14931,7 +14937,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -15005,7 +15011,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -15079,7 +15085,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -15153,7 +15159,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -15227,7 +15233,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -15301,7 +15307,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -15375,7 +15381,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -15449,7 +15455,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -15523,7 +15529,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -15597,7 +15603,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -15671,7 +15677,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -15745,7 +15751,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -15819,7 +15825,7 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -15893,7 +15899,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -15967,7 +15973,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -16041,7 +16047,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -16113,7 +16119,7 @@
       </c>
       <c r="X182" s="2"/>
     </row>
-    <row r="183" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -16187,7 +16193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -16259,7 +16265,7 @@
       </c>
       <c r="X184" s="2"/>
     </row>
-    <row r="185" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -16333,7 +16339,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -16407,7 +16413,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -16481,7 +16487,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -16555,7 +16561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -16629,7 +16635,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -16703,7 +16709,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -16777,7 +16783,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -16851,7 +16857,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -16925,7 +16931,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -16999,7 +17005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -17073,7 +17079,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -17147,7 +17153,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -17221,7 +17227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -17295,7 +17301,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -17369,7 +17375,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -17443,7 +17449,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -17517,7 +17523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -17591,7 +17597,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -17665,7 +17671,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -17739,7 +17745,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -17813,7 +17819,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -17887,7 +17893,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -17961,7 +17967,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -18035,7 +18041,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -18109,7 +18115,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -18183,7 +18189,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -18257,7 +18263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -18331,7 +18337,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -18405,7 +18411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -18479,7 +18485,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -18553,7 +18559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -18627,7 +18633,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -18701,7 +18707,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -18775,7 +18781,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -18849,7 +18855,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -18923,7 +18929,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -18997,7 +19003,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -19071,12 +19077,12 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>50</v>
+        <v>587</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>25</v>
@@ -19145,7 +19151,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -19219,7 +19225,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -19293,7 +19299,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -19367,7 +19373,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -19441,7 +19447,7 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -19515,7 +19521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -19589,7 +19595,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -19663,7 +19669,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -19737,7 +19743,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -19811,7 +19817,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -19885,7 +19891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -19959,7 +19965,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -20033,7 +20039,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -20107,7 +20113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -20181,7 +20187,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -20255,7 +20261,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -20329,7 +20335,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -20403,7 +20409,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -20477,7 +20483,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -20551,7 +20557,7 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -20625,7 +20631,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -20699,7 +20705,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -20773,7 +20779,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -20847,7 +20853,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -20921,7 +20927,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -20993,7 +20999,7 @@
       </c>
       <c r="X248" s="2"/>
     </row>
-    <row r="249" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -21067,7 +21073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -21141,7 +21147,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -21215,7 +21221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -21289,7 +21295,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -21363,7 +21369,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -21437,7 +21443,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -21511,7 +21517,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -21585,7 +21591,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -21659,7 +21665,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -21733,7 +21739,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -21807,7 +21813,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -21881,7 +21887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -21955,7 +21961,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -22029,7 +22035,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -22101,7 +22107,7 @@
       </c>
       <c r="X263" s="2"/>
     </row>
-    <row r="264" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -22175,7 +22181,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -22249,7 +22255,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -22323,7 +22329,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -22397,7 +22403,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -22471,7 +22477,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -22545,7 +22551,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -22619,7 +22625,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -22693,7 +22699,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -22767,7 +22773,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -22841,7 +22847,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -22915,7 +22921,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -22989,7 +22995,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -23063,7 +23069,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -23137,7 +23143,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -23211,7 +23217,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -23285,7 +23291,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -23359,7 +23365,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -23433,7 +23439,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -23507,7 +23513,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -23581,7 +23587,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -23655,7 +23661,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -23727,7 +23733,7 @@
       </c>
       <c r="X285" s="2"/>
     </row>
-    <row r="286" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -23801,7 +23807,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -23875,7 +23881,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -23949,7 +23955,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -24023,7 +24029,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -24097,7 +24103,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="291" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -24171,7 +24177,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -24245,7 +24251,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="293" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -24319,7 +24325,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="294" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -24393,7 +24399,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="295" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -24467,7 +24473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -24539,7 +24545,7 @@
       </c>
       <c r="X296" s="2"/>
     </row>
-    <row r="297" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -24613,7 +24619,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="298" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -24687,7 +24693,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="299" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -24761,7 +24767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -24835,7 +24841,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="301" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -24909,7 +24915,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="302" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -24983,7 +24989,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -25057,7 +25063,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="304" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -25131,7 +25137,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -25205,7 +25211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="306" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -25277,7 +25283,7 @@
       </c>
       <c r="X306" s="2"/>
     </row>
-    <row r="307" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -25351,7 +25357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="308" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -25425,7 +25431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="309" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -25499,7 +25505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="310" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -25573,7 +25579,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="311" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -25647,7 +25653,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="312" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -25721,7 +25727,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -25795,7 +25801,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -25869,7 +25875,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="315" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -25943,7 +25949,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -26017,7 +26023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="317" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -26091,7 +26097,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="318" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -26165,7 +26171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="319" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -26239,7 +26245,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -26311,7 +26317,7 @@
       </c>
       <c r="X320" s="2"/>
     </row>
-    <row r="321" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -26385,7 +26391,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="322" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -26459,7 +26465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="323" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -26533,7 +26539,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="324" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -26607,7 +26613,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="325" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -26681,7 +26687,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="326" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -26753,7 +26759,7 @@
       </c>
       <c r="X326" s="2"/>
     </row>
-    <row r="327" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -26827,7 +26833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="328" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -26901,7 +26907,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="329" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -26975,7 +26981,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="330" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -27049,7 +27055,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="331" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -27123,7 +27129,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="332" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -27197,7 +27203,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="333" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -27271,7 +27277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -27345,7 +27351,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="335" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -27419,7 +27425,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -27493,7 +27499,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="337" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -27567,7 +27573,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="338" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -27641,7 +27647,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="339" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -27715,7 +27721,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="340" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -27789,7 +27795,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="341" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -27863,7 +27869,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="342" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -27937,7 +27943,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="343" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -28011,7 +28017,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="344" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -28085,7 +28091,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="345" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -28159,7 +28165,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="346" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -28233,7 +28239,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="347" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -28307,7 +28313,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="348" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -28381,7 +28387,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="349" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -28455,7 +28461,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="350" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -28529,7 +28535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="351" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -28603,7 +28609,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="352" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -28677,7 +28683,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="353" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -28751,7 +28757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="354" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -28825,7 +28831,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="355" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -28899,7 +28905,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -28973,7 +28979,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -29047,7 +29053,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -29121,7 +29127,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="359" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -29195,7 +29201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -29269,7 +29275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -29343,7 +29349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -29417,7 +29423,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -29491,7 +29497,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -29565,7 +29571,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -29639,7 +29645,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -29713,7 +29719,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -29787,7 +29793,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="368" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -29861,7 +29867,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -29933,7 +29939,7 @@
       </c>
       <c r="X369" s="2"/>
     </row>
-    <row r="370" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -30007,7 +30013,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -30081,7 +30087,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -30155,7 +30161,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -30229,7 +30235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -30303,7 +30309,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -30377,7 +30383,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -30451,7 +30457,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -30525,7 +30531,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -30599,7 +30605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -30673,7 +30679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -30745,7 +30751,7 @@
       </c>
       <c r="X380" s="2"/>
     </row>
-    <row r="381" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -30819,7 +30825,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -30893,7 +30899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -30967,7 +30973,7 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -31041,7 +31047,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="385" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -31115,7 +31121,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="386" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -31187,7 +31193,7 @@
       </c>
       <c r="X386" s="2"/>
     </row>
-    <row r="387" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -31261,7 +31267,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="388" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -31335,7 +31341,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="389" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -31409,7 +31415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="390" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -31481,7 +31487,7 @@
       </c>
       <c r="X390" s="2"/>
     </row>
-    <row r="391" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -31555,7 +31561,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="392" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -31629,7 +31635,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="393" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -31703,7 +31709,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="394" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -31777,7 +31783,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="395" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -31851,7 +31857,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="396" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -31925,7 +31931,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="397" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -31999,7 +32005,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="398" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -32073,7 +32079,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="399" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -32147,7 +32153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -32221,7 +32227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -32295,7 +32301,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="402" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -32369,7 +32375,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="403" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -32443,7 +32449,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="404" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -32517,7 +32523,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="405" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -32591,7 +32597,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="406" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -32665,7 +32671,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="407" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -32739,7 +32745,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="408" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -32813,7 +32819,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -32887,7 +32893,7 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -32961,7 +32967,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="411" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -33035,7 +33041,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="412" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -33107,7 +33113,7 @@
       </c>
       <c r="X412" s="2"/>
     </row>
-    <row r="413" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -33181,7 +33187,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="414" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -33255,7 +33261,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="415" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -33329,7 +33335,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="416" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -33403,7 +33409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="417" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -33477,7 +33483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="418" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -33551,7 +33557,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="419" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -33625,7 +33631,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="420" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -33699,7 +33705,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="421" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -33773,7 +33779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="422" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -33847,7 +33853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -33921,7 +33927,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="424" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -33993,7 +33999,7 @@
       </c>
       <c r="X424" s="2"/>
     </row>
-    <row r="425" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -34067,7 +34073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="426" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -34139,7 +34145,7 @@
       </c>
       <c r="X426" s="2"/>
     </row>
-    <row r="427" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -34213,7 +34219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -34287,7 +34293,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="429" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -34361,7 +34367,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="430" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -34433,7 +34439,7 @@
       </c>
       <c r="X430" s="2"/>
     </row>
-    <row r="431" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -34507,7 +34513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -34581,7 +34587,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="433" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -34655,7 +34661,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="434" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -34729,7 +34735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -34803,7 +34809,7 @@
         <v>88.9</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -34877,7 +34883,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="437" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -34951,7 +34957,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -35025,7 +35031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="439" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -35099,7 +35105,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -35173,7 +35179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -35247,7 +35253,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -35321,7 +35327,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -35395,7 +35401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="444" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -35469,7 +35475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -35543,7 +35549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="446" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -35615,7 +35621,7 @@
       </c>
       <c r="X446" s="2"/>
     </row>
-    <row r="447" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -35689,7 +35695,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -35763,7 +35769,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="449" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -35835,7 +35841,7 @@
       </c>
       <c r="X449" s="2"/>
     </row>
-    <row r="450" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -35907,7 +35913,7 @@
       </c>
       <c r="X450" s="2"/>
     </row>
-    <row r="451" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -35981,7 +35987,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="452" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -36055,7 +36061,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="453" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -36129,7 +36135,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="454" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -36203,7 +36209,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="455" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -36277,7 +36283,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="456" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -36351,7 +36357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="457" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -36425,7 +36431,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="458" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -36499,7 +36505,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="459" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -36573,7 +36579,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="460" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -36647,7 +36653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -36721,7 +36727,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="462" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -36795,7 +36801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -36869,7 +36875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -36943,7 +36949,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="465" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -37017,7 +37023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -37091,7 +37097,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="467" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -37165,7 +37171,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="468" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -37239,7 +37245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="469" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -37313,7 +37319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="470" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -37387,7 +37393,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="471" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -37461,7 +37467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -37535,7 +37541,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="473" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -37609,7 +37615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="474" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -37683,7 +37689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="475" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -37757,7 +37763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="476" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -37831,7 +37837,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="477" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -37905,7 +37911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="478" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -37979,7 +37985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="479" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -38053,7 +38059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="480" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -38125,7 +38131,7 @@
       </c>
       <c r="X480" s="2"/>
     </row>
-    <row r="481" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -38199,7 +38205,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="482" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -38273,7 +38279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="483" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -38347,7 +38353,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="484" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -38421,7 +38427,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="485" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -38495,7 +38501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="486" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -38569,7 +38575,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="487" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -38643,7 +38649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="488" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -38717,7 +38723,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="489" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -38791,7 +38797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="490" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -38865,7 +38871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="491" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -38939,7 +38945,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="492" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -39011,7 +39017,7 @@
       </c>
       <c r="X492" s="2"/>
     </row>
-    <row r="493" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -39085,7 +39091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="494" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -39157,7 +39163,7 @@
       </c>
       <c r="X494" s="2"/>
     </row>
-    <row r="495" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -39229,7 +39235,7 @@
       </c>
       <c r="X495" s="2"/>
     </row>
-    <row r="496" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -39303,7 +39309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="497" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -39377,7 +39383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="498" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -39451,7 +39457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="499" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -39525,7 +39531,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="500" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -39599,7 +39605,6 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="501" spans="1:24" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/spain/19/spain_misc.xlsx
+++ b/data/league_data/spain/19/spain_misc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756FF9F5-15DF-9442-922F-3C94CAB63567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC35E317-C172-EC49-99AB-DEB5349D7AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="591">
   <si>
     <t>Rk</t>
   </si>
@@ -1096,9 +1096,6 @@
     <t>Rubén Pardo</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Gonzalo Melero</t>
   </si>
   <si>
@@ -1787,6 +1784,15 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Juanfran Moreno</t>
   </si>
 </sst>
 </file>
@@ -2653,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11172,7 +11178,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>25</v>
@@ -19082,7 +19088,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>25</v>
@@ -21744,7 +21750,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>322</v>
+        <v>590</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>25</v>
@@ -22778,7 +22784,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>358</v>
+        <v>589</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>75</v>
@@ -22852,7 +22858,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>25</v>
@@ -22926,7 +22932,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>188</v>
@@ -23000,7 +23006,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>25</v>
@@ -23074,7 +23080,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>25</v>
@@ -23148,7 +23154,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>188</v>
@@ -23222,7 +23228,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>25</v>
@@ -23296,7 +23302,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>25</v>
@@ -23370,7 +23376,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>37</v>
@@ -23444,7 +23450,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>133</v>
@@ -23518,7 +23524,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>25</v>
@@ -23592,7 +23598,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>25</v>
@@ -23666,7 +23672,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>25</v>
@@ -23738,7 +23744,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>25</v>
@@ -23812,7 +23818,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>25</v>
@@ -23886,7 +23892,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>177</v>
@@ -23960,10 +23966,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>39</v>
@@ -24034,7 +24040,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>75</v>
@@ -24108,7 +24114,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>25</v>
@@ -24182,7 +24188,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>25</v>
@@ -24256,7 +24262,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>25</v>
@@ -24330,7 +24336,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>44</v>
@@ -24404,7 +24410,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>25</v>
@@ -24478,7 +24484,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>25</v>
@@ -24550,7 +24556,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>25</v>
@@ -24624,7 +24630,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>294</v>
@@ -24698,7 +24704,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>25</v>
@@ -24772,7 +24778,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>25</v>
@@ -24846,7 +24852,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>25</v>
@@ -24920,7 +24926,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>44</v>
@@ -24994,7 +25000,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>25</v>
@@ -25068,7 +25074,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>25</v>
@@ -25142,7 +25148,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>110</v>
@@ -25216,7 +25222,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>42</v>
@@ -25288,7 +25294,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>25</v>
@@ -25362,7 +25368,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>382</v>
+        <v>588</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>25</v>
@@ -25436,7 +25442,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>107</v>
@@ -25510,10 +25516,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C310" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>47</v>
@@ -25584,7 +25590,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>25</v>
@@ -25658,7 +25664,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>25</v>
@@ -25732,7 +25738,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>110</v>
@@ -25806,10 +25812,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>34</v>
@@ -25880,7 +25886,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>25</v>
@@ -25954,7 +25960,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>25</v>
@@ -26028,7 +26034,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>37</v>
@@ -26102,7 +26108,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>197</v>
@@ -26176,7 +26182,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>25</v>
@@ -26250,7 +26256,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>25</v>
@@ -26322,7 +26328,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>25</v>
@@ -26396,7 +26402,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>110</v>
@@ -26470,7 +26476,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>25</v>
@@ -26544,7 +26550,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>25</v>
@@ -26618,7 +26624,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>25</v>
@@ -26692,10 +26698,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>26</v>
@@ -26764,7 +26770,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>37</v>
@@ -26838,7 +26844,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>328</v>
@@ -26912,7 +26918,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>25</v>
@@ -26986,7 +26992,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>75</v>
@@ -27134,7 +27140,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>188</v>
@@ -27208,7 +27214,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>195</v>
@@ -27282,7 +27288,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>25</v>
@@ -27356,7 +27362,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>25</v>
@@ -27430,7 +27436,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>25</v>
@@ -27504,10 +27510,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C337" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>89</v>
@@ -27578,10 +27584,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C338" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>45</v>
@@ -27652,10 +27658,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>47</v>
@@ -27726,7 +27732,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>25</v>
@@ -27800,7 +27806,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>180</v>
@@ -27874,7 +27880,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>25</v>
@@ -27948,7 +27954,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>222</v>
@@ -28022,7 +28028,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>44</v>
@@ -28096,7 +28102,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>25</v>
@@ -28170,7 +28176,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>25</v>
@@ -28244,7 +28250,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>25</v>
@@ -28318,7 +28324,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>107</v>
@@ -28392,10 +28398,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C349" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>47</v>
@@ -28466,7 +28472,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>72</v>
@@ -28540,7 +28546,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>300</v>
@@ -28614,7 +28620,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>234</v>
@@ -28688,7 +28694,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>107</v>
@@ -28762,7 +28768,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>153</v>
@@ -28836,7 +28842,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>294</v>
@@ -28910,7 +28916,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>355</v>
@@ -28984,10 +28990,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>140</v>
@@ -29058,7 +29064,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>37</v>
@@ -29132,7 +29138,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>266</v>
@@ -29206,7 +29212,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>25</v>
@@ -29280,7 +29286,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>25</v>
@@ -29354,7 +29360,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>25</v>
@@ -29428,7 +29434,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>153</v>
@@ -29502,7 +29508,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>25</v>
@@ -29576,7 +29582,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>75</v>
@@ -29650,7 +29656,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>25</v>
@@ -29724,10 +29730,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C367" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>45</v>
@@ -29798,7 +29804,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>25</v>
@@ -29872,7 +29878,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>25</v>
@@ -29944,7 +29950,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>75</v>
@@ -30018,7 +30024,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>25</v>
@@ -30092,7 +30098,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>25</v>
@@ -30166,10 +30172,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C373" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>45</v>
@@ -30240,7 +30246,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>107</v>
@@ -30314,7 +30320,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>25</v>
@@ -30388,7 +30394,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>25</v>
@@ -30462,7 +30468,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>177</v>
@@ -30610,7 +30616,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>25</v>
@@ -30684,7 +30690,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>25</v>
@@ -30756,7 +30762,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>266</v>
@@ -30830,7 +30836,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>37</v>
@@ -30904,10 +30910,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>140</v>
@@ -30978,7 +30984,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>72</v>
@@ -31052,10 +31058,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C385" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>45</v>
@@ -31126,7 +31132,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>25</v>
@@ -31198,7 +31204,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>44</v>
@@ -31272,7 +31278,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>25</v>
@@ -31346,7 +31352,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>25</v>
@@ -31420,7 +31426,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>107</v>
@@ -31492,10 +31498,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>482</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>34</v>
@@ -31566,7 +31572,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>177</v>
@@ -31640,10 +31646,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>485</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>39</v>
@@ -31714,7 +31720,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>25</v>
@@ -31788,7 +31794,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>25</v>
@@ -31862,7 +31868,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>25</v>
@@ -31936,7 +31942,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>25</v>
@@ -32010,7 +32016,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>107</v>
@@ -32084,7 +32090,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>144</v>
@@ -32158,7 +32164,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>188</v>
@@ -32232,7 +32238,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>25</v>
@@ -32306,7 +32312,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>215</v>
@@ -32380,7 +32386,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>188</v>
@@ -32454,10 +32460,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C404" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>34</v>
@@ -32528,7 +32534,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>25</v>
@@ -32602,7 +32608,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>25</v>
@@ -32676,7 +32682,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>25</v>
@@ -32750,7 +32756,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>37</v>
@@ -32824,7 +32830,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>44</v>
@@ -32898,7 +32904,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>44</v>
@@ -32972,10 +32978,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C411" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>45</v>
@@ -33046,7 +33052,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>25</v>
@@ -33118,7 +33124,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>75</v>
@@ -33192,7 +33198,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>25</v>
@@ -33266,7 +33272,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>25</v>
@@ -33340,7 +33346,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>25</v>
@@ -33414,7 +33420,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>25</v>
@@ -33488,7 +33494,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>25</v>
@@ -33562,10 +33568,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>89</v>
@@ -33636,7 +33642,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>25</v>
@@ -33784,10 +33790,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C422" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>47</v>
@@ -33858,7 +33864,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>180</v>
@@ -33932,10 +33938,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>26</v>
@@ -34004,7 +34010,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>215</v>
@@ -34078,7 +34084,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>25</v>
@@ -34150,7 +34156,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>195</v>
@@ -34224,7 +34230,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>25</v>
@@ -34298,7 +34304,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>153</v>
@@ -34372,7 +34378,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>25</v>
@@ -34444,7 +34450,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>144</v>
@@ -34518,7 +34524,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>25</v>
@@ -34592,7 +34598,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>25</v>
@@ -34666,7 +34672,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>25</v>
@@ -34740,7 +34746,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>144</v>
@@ -34814,10 +34820,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>39</v>
@@ -34888,7 +34894,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>75</v>
@@ -34962,7 +34968,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>25</v>
@@ -35036,7 +35042,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>25</v>
@@ -35110,7 +35116,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>25</v>
@@ -35184,7 +35190,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>25</v>
@@ -35258,7 +35264,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>37</v>
@@ -35332,7 +35338,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>25</v>
@@ -35406,7 +35412,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>44</v>
@@ -35480,7 +35486,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>25</v>
@@ -35554,7 +35560,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>328</v>
@@ -35626,7 +35632,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>25</v>
@@ -35700,7 +35706,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>25</v>
@@ -35774,7 +35780,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>25</v>
@@ -35846,7 +35852,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>25</v>
@@ -35918,7 +35924,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>234</v>
@@ -35992,7 +35998,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>25</v>
@@ -36066,7 +36072,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>266</v>
@@ -36140,7 +36146,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>25</v>
@@ -36214,7 +36220,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>25</v>
@@ -36288,7 +36294,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>195</v>
@@ -36362,7 +36368,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>234</v>
@@ -36436,7 +36442,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>188</v>
@@ -36510,7 +36516,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>75</v>
@@ -36584,7 +36590,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>197</v>
@@ -36658,7 +36664,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>57</v>
@@ -36732,7 +36738,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>37</v>
@@ -36806,7 +36812,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>25</v>
@@ -36880,7 +36886,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>107</v>
@@ -36954,7 +36960,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>25</v>
@@ -37028,7 +37034,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>107</v>
@@ -37102,7 +37108,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>188</v>
@@ -37176,7 +37182,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>25</v>
@@ -37250,7 +37256,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>25</v>
@@ -37324,7 +37330,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>25</v>
@@ -37398,7 +37404,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>25</v>
@@ -37472,7 +37478,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>25</v>
@@ -37546,7 +37552,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>25</v>
@@ -37620,7 +37626,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>25</v>
@@ -37694,7 +37700,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>107</v>
@@ -37768,7 +37774,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>234</v>
@@ -37842,7 +37848,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>25</v>
@@ -37916,10 +37922,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>47</v>
@@ -37990,7 +37996,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>25</v>
@@ -38064,7 +38070,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>110</v>
@@ -38136,7 +38142,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>25</v>
@@ -38210,7 +38216,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>25</v>
@@ -38284,7 +38290,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>44</v>
@@ -38358,7 +38364,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>25</v>
@@ -38432,7 +38438,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>25</v>
@@ -38506,7 +38512,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>133</v>
@@ -38580,7 +38586,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>25</v>
@@ -38654,7 +38660,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>133</v>
@@ -38728,7 +38734,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>25</v>
@@ -38802,7 +38808,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>25</v>
@@ -38876,7 +38882,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>25</v>
@@ -38950,7 +38956,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>25</v>
@@ -39022,7 +39028,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>25</v>
@@ -39096,7 +39102,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>107</v>
@@ -39168,7 +39174,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>25</v>
@@ -39240,7 +39246,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>25</v>
@@ -39314,7 +39320,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>25</v>
@@ -39388,7 +39394,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>169</v>
@@ -39462,7 +39468,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>25</v>
@@ -39536,7 +39542,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>133</v>

--- a/data/league_data/spain/19/spain_misc.xlsx
+++ b/data/league_data/spain/19/spain_misc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC35E317-C172-EC49-99AB-DEB5349D7AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A6B2A6-8A03-7744-A7C3-ACF173FB2574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1606,9 +1606,6 @@
     <t>Cheick Doukouré</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>Ignasi Miquel</t>
   </si>
   <si>
@@ -1793,6 +1790,9 @@
   </si>
   <si>
     <t>Juanfran Moreno</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2659,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="B437" sqref="B437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11178,7 +11178,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>25</v>
@@ -19088,7 +19088,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>25</v>
@@ -21750,7 +21750,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>25</v>
@@ -22784,7 +22784,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>75</v>
@@ -25368,7 +25368,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>25</v>
@@ -34894,7 +34894,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>75</v>
@@ -34968,7 +34968,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>25</v>
@@ -35042,7 +35042,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>25</v>
@@ -35116,7 +35116,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>25</v>
@@ -35190,7 +35190,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>25</v>
@@ -35264,7 +35264,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>37</v>
@@ -35338,7 +35338,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>25</v>
@@ -35412,7 +35412,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>44</v>
@@ -35486,7 +35486,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>25</v>
@@ -35560,7 +35560,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>328</v>
@@ -35632,7 +35632,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>25</v>
@@ -35706,7 +35706,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>25</v>
@@ -35780,7 +35780,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>25</v>
@@ -35852,7 +35852,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>25</v>
@@ -35924,7 +35924,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>234</v>
@@ -35998,7 +35998,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>25</v>
@@ -36072,7 +36072,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>266</v>
@@ -36146,7 +36146,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>25</v>
@@ -36220,7 +36220,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>25</v>
@@ -36294,7 +36294,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>195</v>
@@ -36368,7 +36368,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>234</v>
@@ -36442,7 +36442,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>188</v>
@@ -36516,7 +36516,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>75</v>
@@ -36590,7 +36590,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>197</v>
@@ -36664,7 +36664,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>57</v>
@@ -36738,7 +36738,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>37</v>
@@ -36812,7 +36812,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>25</v>
@@ -36886,7 +36886,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>107</v>
@@ -36960,7 +36960,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>25</v>
@@ -37034,7 +37034,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>107</v>
@@ -37182,7 +37182,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>25</v>
@@ -37256,7 +37256,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>25</v>
@@ -37404,7 +37404,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>25</v>
@@ -37478,7 +37478,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>25</v>
@@ -37552,7 +37552,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>25</v>
@@ -37626,7 +37626,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>25</v>
@@ -37700,7 +37700,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>107</v>
@@ -37774,7 +37774,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>234</v>
@@ -37848,7 +37848,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>25</v>
@@ -37922,7 +37922,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>484</v>
@@ -37996,7 +37996,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>25</v>
@@ -38142,7 +38142,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>25</v>
@@ -38216,7 +38216,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>25</v>
@@ -38290,7 +38290,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>44</v>
@@ -38364,7 +38364,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>25</v>
@@ -38438,7 +38438,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>25</v>
@@ -38512,7 +38512,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>133</v>
@@ -38586,7 +38586,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>25</v>
@@ -38660,7 +38660,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>133</v>
@@ -38734,7 +38734,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>25</v>
@@ -38808,7 +38808,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>25</v>
@@ -38882,7 +38882,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>25</v>
@@ -38956,7 +38956,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>25</v>
@@ -39028,7 +39028,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>25</v>
@@ -39102,7 +39102,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>107</v>
@@ -39174,7 +39174,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>25</v>
@@ -39246,7 +39246,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>25</v>
@@ -39320,7 +39320,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>25</v>
@@ -39394,7 +39394,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>169</v>
@@ -39468,7 +39468,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>25</v>
@@ -39542,7 +39542,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>133</v>
